--- a/biology/Zoologie/Cymidae/Cymidae.xlsx
+++ b/biology/Zoologie/Cymidae/Cymidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymidae sont une famille d'insectes de l'ordre des hémiptères, du sous-ordre des hétéroptères (punaises) et de la super-famille des Lygaeoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De couleur beige et de forme elliptique, ces punaises mesurent de 3 à 5 mm. Au sein des Lygaeoidea, dont elles partagent les principales caractéristiques (en autres antennes et un rostre de 4 articles, et des membranes des hémélytres avec 4 ou 5 veines seulement), les Cymidae se caractérisent notamment par des ocelles entourées d'un sillon, des hémélytres munies d'une ponctuation sur le clavus et la corie, celle-ci opaque sur toute la longueur et sans constriction basale (par contraste avec les Ninidae). Elles présentent également des buccules (renflements entourant la base du rostre) qui sont courtes et ne s'étendant pas en arrière au-delà de la base des antennes (par contraste avec les Cryptorhamphidae). Elles ont des trichobothries sur les sternites abdominaux 2 à 7. La sous-famille des Ontiscinae se distingue de celle des Cyminae par des cories seulement partiellement ponctuées, par le nombre de glandes odoriférantes abdominales et par l'emplacement des stigmates abdominaux[3],[4],[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De couleur beige et de forme elliptique, ces punaises mesurent de 3 à 5 mm. Au sein des Lygaeoidea, dont elles partagent les principales caractéristiques (en autres antennes et un rostre de 4 articles, et des membranes des hémélytres avec 4 ou 5 veines seulement), les Cymidae se caractérisent notamment par des ocelles entourées d'un sillon, des hémélytres munies d'une ponctuation sur le clavus et la corie, celle-ci opaque sur toute la longueur et sans constriction basale (par contraste avec les Ninidae). Elles présentent également des buccules (renflements entourant la base du rostre) qui sont courtes et ne s'étendant pas en arrière au-delà de la base des antennes (par contraste avec les Cryptorhamphidae). Elles ont des trichobothries sur les sternites abdominaux 2 à 7. La sous-famille des Ontiscinae se distingue de celle des Cyminae par des cories seulement partiellement ponctuées, par le nombre de glandes odoriférantes abdominales et par l'emplacement des stigmates abdominaux. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est cosmopolite, mais uniquement par son genre Cymus, dont on rencontre des espèces sur tous les continents. A part ce genre, les groupes se rencontrent dans des zones assez déterminées[4],[5]: la sous-famille des Ontiscinae ne se rencontre que dans les îles du Pacifique, notammnent polynésiennes et à Hawaï; un groupe d'espèce se rencontre en Amérique du Nord[6] (dont deux au Canada, Cymus coriacipennis et Cymus luridus[7]), alors que seules deux espèces se rencontrent en Amérique du Sud. Un groupe assez riche est présent en Afrique du Sud, et huit espèces se rencontrent en Europe[8], dont, en France, Cymodema tabida, et dans le genre Cymus, C. aurescens, C. claviculus, C. glandicolor, C. melanocephalus[9], ces quatre dernières espèces présentes en Belgique et en Suisse également[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est cosmopolite, mais uniquement par son genre Cymus, dont on rencontre des espèces sur tous les continents. A part ce genre, les groupes se rencontrent dans des zones assez déterminées,: la sous-famille des Ontiscinae ne se rencontre que dans les îles du Pacifique, notammnent polynésiennes et à Hawaï; un groupe d'espèce se rencontre en Amérique du Nord (dont deux au Canada, Cymus coriacipennis et Cymus luridus), alors que seules deux espèces se rencontrent en Amérique du Sud. Un groupe assez riche est présent en Afrique du Sud, et huit espèces se rencontrent en Europe, dont, en France, Cymodema tabida, et dans le genre Cymus, C. aurescens, C. claviculus, C. glandicolor, C. melanocephalus, ces quatre dernières espèces présentes en Belgique et en Suisse également.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de punaises phytophages, dont les plantes-hôtes, monocotylédones, sont des Cyperaceae et des Juncaceae (comme pour les Ninidae et les Pachygronthidae). Elles en consomment les graines, et sont sans doute polyphages. On les rencontre souvent sur les sommités des plantes portant les graines, sur lesquelles leur couleur leur permet souvent de passer inaperçues. On les a trouvées notamment sur Carex, Juncus et Scirpus, et sur des Restionaceae et des Poaceae[4],[5].
-Leur position d'accouplement est côte à côte et non cul-à-cul comme chez beaucoup d'espèces[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de punaises phytophages, dont les plantes-hôtes, monocotylédones, sont des Cyperaceae et des Juncaceae (comme pour les Ninidae et les Pachygronthidae). Elles en consomment les graines, et sont sans doute polyphages. On les rencontre souvent sur les sommités des plantes portant les graines, sur lesquelles leur couleur leur permet souvent de passer inaperçues. On les a trouvées notamment sur Carex, Juncus et Scirpus, et sur des Restionaceae et des Poaceae,.
+Leur position d'accouplement est côte à côte et non cul-à-cul comme chez beaucoup d'espèces. 
 </t>
         </is>
       </c>
